--- a/Stocks/BASF.xlsx
+++ b/Stocks/BASF.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1306.3333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1453.0030987017581</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1486.9944904375498</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>6.3384936910053442</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>1.6500000000000909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>39.700000000000045</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>4.1561712846349852E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1562.7992345135344</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-34.620946004879897</v>
       </c>
       <c r="Y67">
         <v>-4.5229294970247595</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>1445.15</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>1434.5500000000002</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>1429.8500000000001</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>1425.15</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1450</v>
+      </c>
+      <c r="D83">
+        <v>1520</v>
+      </c>
+      <c r="E83">
+        <v>1430.05</v>
+      </c>
+      <c r="F83">
+        <v>1490</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1480.0166666666667</v>
+      </c>
+      <c r="H83">
+        <v>1454.6785751815598</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1464.9498490881072</v>
+      </c>
+      <c r="K83">
+        <v>1417.4384101187561</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>70.691098421522412</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>59.950000000000045</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>89.950000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.66648137854363554</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1446.1529052644937</v>
+      </c>
+      <c r="W83">
+        <v>1473.2507355541552</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-27.097830289661488</v>
+      </c>
+      <c r="Y83">
+        <v>-36.1908853973774</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1508</v>
+      </c>
+      <c r="D84">
+        <v>1510</v>
+      </c>
+      <c r="E84">
+        <v>1467.5</v>
+      </c>
+      <c r="F84">
+        <v>1477.3</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1484.9333333333334</v>
+      </c>
+      <c r="H84">
+        <v>1469.8059542574465</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>1474.9609937351945</v>
+      </c>
+      <c r="K84">
+        <v>1428.5632078701437</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>63.373216833936709</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>42.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.23058823529411657</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1450.9447659930331</v>
+      </c>
+      <c r="W84">
+        <v>1473.5506810686622</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-22.605915075629127</v>
+      </c>
+      <c r="Y84">
+        <v>-33.473891333027744</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1511.2</v>
+      </c>
+      <c r="D85">
+        <v>1511.2</v>
+      </c>
+      <c r="E85">
+        <v>1490</v>
+      </c>
+      <c r="F85">
+        <v>1500</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1500.3999999999999</v>
+      </c>
+      <c r="H85">
+        <v>1485.1029771287231</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1483.0141062384846</v>
+      </c>
+      <c r="K85">
+        <v>1442.2158283434451</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>70.253273015305766</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>21.200000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.47169811320754618</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1458.491725071028</v>
+      </c>
+      <c r="W85">
+        <v>1475.509889878391</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-17.018164807363064</v>
+      </c>
+      <c r="Y85">
+        <v>-30.182746027894808</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1509.95</v>
+      </c>
+      <c r="D86">
+        <v>1519.65</v>
+      </c>
+      <c r="E86">
+        <v>1490</v>
+      </c>
+      <c r="F86">
+        <v>1505</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1504.8833333333332</v>
+      </c>
+      <c r="H86">
+        <v>1494.9931552310281</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1491.1554159632658</v>
+      </c>
+      <c r="K86">
+        <v>1452.8345331560129</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>71.71607981489106</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>29.650000000000091</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.50590219224283151</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1465.6468442908699</v>
+      </c>
+      <c r="W86">
+        <v>1477.6943424799917</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-12.047498189121825</v>
+      </c>
+      <c r="Y86">
+        <v>-26.555696460140211</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1516.8</v>
+      </c>
+      <c r="D87">
+        <v>1536</v>
+      </c>
+      <c r="E87">
+        <v>1503</v>
+      </c>
+      <c r="F87">
+        <v>1528</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1522.3333333333333</v>
+      </c>
+      <c r="H87">
+        <v>1508.6632442821806</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1501.1208790825401</v>
+      </c>
+      <c r="K87">
+        <v>1463.982414676899</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>77.950704843178457</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>33</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1475.23963747689</v>
+      </c>
+      <c r="W87">
+        <v>1481.4206874814738</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-6.1810500045837671</v>
+      </c>
+      <c r="Y87">
+        <v>-22.480767169028923</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1550</v>
+      </c>
+      <c r="D88">
+        <v>1550</v>
+      </c>
+      <c r="E88">
+        <v>1488</v>
+      </c>
+      <c r="F88">
+        <v>1502.95</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1513.6499999999999</v>
+      </c>
+      <c r="H88">
+        <v>1511.1566221410903</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1511.9829059530869</v>
+      </c>
+      <c r="K88">
+        <v>1469.3196558598104</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>59.95763910976828</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>62</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.24112903225806526</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1479.5027701727531</v>
+      </c>
+      <c r="W88">
+        <v>1483.015451371735</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-3.5126811989819089</v>
+      </c>
+      <c r="Y88">
+        <v>-18.687149975019519</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1506.15</v>
+      </c>
+      <c r="D89">
+        <v>1506.2</v>
+      </c>
+      <c r="E89">
+        <v>1480</v>
+      </c>
+      <c r="F89">
+        <v>1481.05</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1489.0833333333333</v>
+      </c>
+      <c r="H89">
+        <v>1500.1199777372117</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>1510.6978157412898</v>
+      </c>
+      <c r="K89">
+        <v>1471.6930656687414</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>47.879919805961194</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.0499999999999545</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>26.200000000000045</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>4.0076335877860789E-2</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1479.740805530791</v>
+      </c>
+      <c r="W89">
+        <v>1482.8698623812361</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-3.1290568504450675</v>
+      </c>
+      <c r="Y89">
+        <v>-15.57553135010463</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1490</v>
+      </c>
+      <c r="D90">
+        <v>1501</v>
+      </c>
+      <c r="E90">
+        <v>1473</v>
+      </c>
+      <c r="F90">
+        <v>1473</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1482.3333333333333</v>
+      </c>
+      <c r="H90">
+        <v>1491.2266555352726</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>1508.5427455765587</v>
+      </c>
+      <c r="K90">
+        <v>1471.9834955201322</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>43.82378764401146</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1478.7037585260539</v>
+      </c>
+      <c r="W90">
+        <v>1482.1387614641076</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-3.4350029380536853</v>
+      </c>
+      <c r="Y90">
+        <v>-13.14742566769444</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1481</v>
+      </c>
+      <c r="D91">
+        <v>1490</v>
+      </c>
+      <c r="E91">
+        <v>1438</v>
+      </c>
+      <c r="F91">
+        <v>1445</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1457.6666666666667</v>
+      </c>
+      <c r="H91">
+        <v>1474.4466611009698</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>1504.4221354484346</v>
+      </c>
+      <c r="K91">
+        <v>1464.4316076267696</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>32.027330617396629</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.13461538461538461</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V91">
+        <v>1473.5185649066609</v>
+      </c>
+      <c r="W91">
+        <v>1479.3877420963959</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-5.8691771897349554</v>
+      </c>
+      <c r="Y91">
+        <v>-11.691775972102544</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1454.9</v>
+      </c>
+      <c r="D92">
+        <v>1466.9</v>
+      </c>
+      <c r="E92">
+        <v>1442.55</v>
+      </c>
+      <c r="F92">
+        <v>1450</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1453.1499999999999</v>
+      </c>
+      <c r="H92">
+        <v>1463.7983305504849</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1496.0838831265603</v>
+      </c>
+      <c r="K92">
+        <v>1459.5690281541542</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>35.879961820711209</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>7.4500000000000455</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>24.350000000000136</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.30595482546201247</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1469.9003241517901</v>
+      </c>
+      <c r="W92">
+        <v>1477.2108723114777</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-7.3105481596876416</v>
+      </c>
+      <c r="Y92">
+        <v>-10.815530409619564</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1462.75</v>
+      </c>
+      <c r="D93">
+        <v>1465.95</v>
+      </c>
+      <c r="E93">
+        <v>1440.1</v>
+      </c>
+      <c r="F93">
+        <v>1450.95</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1452.3333333333333</v>
+      </c>
+      <c r="H93">
+        <v>1458.065831941909</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>1489.3874646539914</v>
+      </c>
+      <c r="K93">
+        <v>1455.242577453231</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>36.731635709747167</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>10.850000000000136</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>25.850000000000136</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.41972920696325255</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1466.9848896668993</v>
+      </c>
+      <c r="W93">
+        <v>1475.2656225106275</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-8.280732843728174</v>
+      </c>
+      <c r="Y93">
+        <v>-10.308570896441285</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1450</v>
+      </c>
+      <c r="D94">
+        <v>1476</v>
+      </c>
+      <c r="E94">
+        <v>1441</v>
+      </c>
+      <c r="F94">
+        <v>1447</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1454.6666666666667</v>
+      </c>
+      <c r="H94">
+        <v>1456.366249304288</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>1486.4124725086599</v>
+      </c>
+      <c r="K94">
+        <v>1452.0775602414019</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>34.359651395833119</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V94">
+        <v>1463.910291256607</v>
+      </c>
+      <c r="W94">
+        <v>1473.1718726950255</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-9.2615814384184887</v>
+      </c>
+      <c r="Y94">
+        <v>-10.099173004836725</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1441</v>
+      </c>
+      <c r="D95">
+        <v>1463.7</v>
+      </c>
+      <c r="E95">
+        <v>1441</v>
+      </c>
+      <c r="F95">
+        <v>1446</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1450.2333333333333</v>
+      </c>
+      <c r="H95">
+        <v>1453.2997913188105</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1481.3652563956243</v>
+      </c>
+      <c r="K95">
+        <v>1449.6158801877571</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>33.671557559293944</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>22.700000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.22026431718061629</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1461.1548618325137</v>
+      </c>
+      <c r="W95">
+        <v>1471.159141384283</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-10.004279551769287</v>
+      </c>
+      <c r="Y95">
+        <v>-10.080194314223238</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1459.95</v>
+      </c>
+      <c r="D96">
+        <v>1470</v>
+      </c>
+      <c r="E96">
+        <v>1436.05</v>
+      </c>
+      <c r="F96">
+        <v>1462</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1456.0166666666667</v>
+      </c>
+      <c r="H96">
+        <v>1454.6582289927387</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1478.8396438632633</v>
+      </c>
+      <c r="K96">
+        <v>1446.6012401460332</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>52.640278714867165</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>25.950000000000045</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>33.950000000000045</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.76435935198821825</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1461.28488308905</v>
+      </c>
+      <c r="W96">
+        <v>1470.4806864669288</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-9.1958033778787467</v>
+      </c>
+      <c r="Y96">
+        <v>-9.9033161269543406</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1452.6</v>
+      </c>
+      <c r="D97">
+        <v>1506.6</v>
+      </c>
+      <c r="E97">
+        <v>1438.7</v>
+      </c>
+      <c r="F97">
+        <v>1491.1</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1478.8</v>
+      </c>
+      <c r="H97">
+        <v>1466.7291144963692</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1485.0086118936492</v>
+      </c>
+      <c r="K97">
+        <v>1444.8454090024702</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>71.299948363425685</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>52.399999999999864</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>67.899999999999864</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.77172312223858575</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1465.8718241522731</v>
+      </c>
+      <c r="W97">
+        <v>1472.0080430249341</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-6.1362188726609475</v>
+      </c>
+      <c r="Y97">
+        <v>-9.1498966760956613</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1500</v>
+      </c>
+      <c r="D98">
+        <v>1555.05</v>
+      </c>
+      <c r="E98">
+        <v>1497.15</v>
+      </c>
+      <c r="F98">
+        <v>1537</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1529.7333333333333</v>
+      </c>
+      <c r="H98">
+        <v>1498.2312239148514</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1500.5733648061716</v>
+      </c>
+      <c r="K98">
+        <v>1456.4686514463658</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>83.847585863465696</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>39.849999999999909</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>57.899999999999864</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.68825561312607952</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1476.8146204365387</v>
+      </c>
+      <c r="W98">
+        <v>1476.8222620601241</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-7.6416235854139813E-3</v>
+      </c>
+      <c r="Y98">
+        <v>-7.321445665593612</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1539</v>
+      </c>
+      <c r="D99">
+        <v>1575</v>
+      </c>
+      <c r="E99">
+        <v>1519.95</v>
+      </c>
+      <c r="F99">
+        <v>1574</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1556.3166666666666</v>
+      </c>
+      <c r="H99">
+        <v>1527.273945290759</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1517.1126170714667</v>
+      </c>
+      <c r="K99">
+        <v>1470.5756177916178</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>88.787195166927063</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>54.049999999999955</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>55.049999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.98183469573115345</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>1491.7662172924558</v>
+      </c>
+      <c r="W99">
+        <v>1484.0206130186334</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>7.7456042738224369</v>
+      </c>
+      <c r="Y99">
+        <v>-4.3080356777104019</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>1526.25</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>1541</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>1547.45</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>1553.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1571</v>
+      </c>
+      <c r="D100">
+        <v>1617.45</v>
+      </c>
+      <c r="E100">
+        <v>1530</v>
+      </c>
+      <c r="F100">
+        <v>1530</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1559.1499999999999</v>
+      </c>
+      <c r="H100">
+        <v>1543.2119726453793</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1539.4098132778074</v>
+      </c>
+      <c r="K100">
+        <v>1483.7810360601472</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>61.03949222549543</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>87.450000000000045</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1497.648337709001</v>
+      </c>
+      <c r="W100">
+        <v>1487.4264935357717</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>10.221844173229329</v>
+      </c>
+      <c r="Y100">
+        <v>-1.4020597075224557</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1554.45</v>
+      </c>
+      <c r="D101">
+        <v>1563.9</v>
+      </c>
+      <c r="E101">
+        <v>1505</v>
+      </c>
+      <c r="F101">
+        <v>1559</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1542.6333333333332</v>
+      </c>
+      <c r="H101">
+        <v>1542.9226529893563</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1544.8520769938502</v>
+      </c>
+      <c r="K101">
+        <v>1488.4963613801144</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>69.016828582028552</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>58.900000000000091</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.91680814940577104</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>1507.0870549845392</v>
+      </c>
+      <c r="W101">
+        <v>1492.7282347553441</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>14.358820229195089</v>
+      </c>
+      <c r="Y101">
+        <v>1.7501162798210537</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1540.4</v>
+      </c>
+      <c r="D102">
+        <v>1549</v>
+      </c>
+      <c r="E102">
+        <v>1445.3</v>
+      </c>
+      <c r="F102">
+        <v>1465</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1486.4333333333334</v>
+      </c>
+      <c r="H102">
+        <v>1514.6779931613448</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1545.7738376618836</v>
+      </c>
+      <c r="K102">
+        <v>1478.8971699623112</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>37.722185186522573</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>19.700000000000045</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>103.70000000000005</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.18997107039537162</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1500.6121234484563</v>
+      </c>
+      <c r="W102">
+        <v>1490.6742914401334</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>9.9378320083228573</v>
+      </c>
+      <c r="Y102">
+        <v>3.3876594255214147</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1492</v>
+      </c>
+      <c r="D103">
+        <v>1492</v>
+      </c>
+      <c r="E103">
+        <v>1425.5</v>
+      </c>
+      <c r="F103">
+        <v>1441</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1452.8333333333333</v>
+      </c>
+      <c r="H103">
+        <v>1483.755663247339</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1533.8240959592429</v>
+      </c>
+      <c r="K103">
+        <v>1467.0311321929087</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>32.953391563583004</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>15.5</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>66.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.23308270676691728</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1491.4410275333091</v>
+      </c>
+      <c r="W103">
+        <v>1486.9947142964197</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>4.4463132368894094</v>
+      </c>
+      <c r="Y103">
+        <v>3.5993901877950139</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1437.45</v>
+      </c>
+      <c r="D104">
+        <v>1450</v>
+      </c>
+      <c r="E104">
+        <v>1416</v>
+      </c>
+      <c r="F104">
+        <v>1425</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1430.3333333333333</v>
+      </c>
+      <c r="H104">
+        <v>1457.0444982903362</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1515.196519079411</v>
+      </c>
+      <c r="K104">
+        <v>1455.6908805944845</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>29.812657727695434</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>34</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1481.2193309897232</v>
+      </c>
+      <c r="W104">
+        <v>1482.4025132374256</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-1.1831822477024616</v>
+      </c>
+      <c r="Y104">
+        <v>2.6428757006955186</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
